--- a/Dataset/19/수리남_학습 (19)/수리남3.xlsx
+++ b/Dataset/19/수리남_학습 (19)/수리남3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82109\OneDrive - 부산광역시교육청\문서\_3학년 1학기\AI 실무 프로젝트\수리남_학습 (19)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\19\수리남_학습 (19)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C97B39-7B95-44B8-8A6F-6E9A17FED362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1A27C-729D-4281-BF77-F698DA1E1A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5528,7 +5528,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5833,19 +5833,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D930"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
-      <selection activeCell="D926" sqref="D926"/>
+      <selection activeCell="Q826" sqref="Q826"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="62.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5943,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5957,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6013,7 +6012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -6069,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -6083,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6097,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -6111,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -6167,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -6181,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -6195,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -6251,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -6265,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -6307,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -6335,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -6363,7 +6362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6391,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -6405,7 +6404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -6419,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6489,7 +6488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -6503,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -6531,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6559,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -6573,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -6587,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -6629,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6643,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -6657,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6685,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6741,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6769,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6811,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6839,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6853,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6881,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6895,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6909,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6937,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6965,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -7035,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -7049,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -7077,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -7105,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -7119,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -7203,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -7217,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -7273,7 +7272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -7287,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -7329,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -7357,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -7371,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -7385,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -7399,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -7441,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -7455,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -7483,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -7497,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -7553,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -7567,7 +7566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -7581,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -7609,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -7623,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7651,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7679,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7693,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>268</v>
       </c>
@@ -7735,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7763,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7777,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7833,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7861,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7889,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7917,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7931,7 +7930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7959,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -8001,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -8015,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>309</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>311</v>
       </c>
@@ -8043,7 +8042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>313</v>
       </c>
@@ -8057,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>315</v>
       </c>
@@ -8071,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -8085,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>319</v>
       </c>
@@ -8099,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>321</v>
       </c>
@@ -8113,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>323</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>325</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>327</v>
       </c>
@@ -8155,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>329</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>331</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>333</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>337</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>339</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>341</v>
       </c>
@@ -8253,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>343</v>
       </c>
@@ -8267,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>345</v>
       </c>
@@ -8281,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>347</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>349</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>351</v>
       </c>
@@ -8323,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>353</v>
       </c>
@@ -8337,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>357</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>359</v>
       </c>
@@ -8393,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>361</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>363</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>365</v>
       </c>
@@ -8435,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>367</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>369</v>
       </c>
@@ -8463,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>371</v>
       </c>
@@ -8477,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>373</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>375</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>376</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>378</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>380</v>
       </c>
@@ -8547,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>382</v>
       </c>
@@ -8561,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>384</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>386</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>388</v>
       </c>
@@ -8603,7 +8602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>390</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>391</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>395</v>
       </c>
@@ -8659,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>397</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>399</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -8701,7 +8700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>403</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>405</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>407</v>
       </c>
@@ -8743,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>409</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>411</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>412</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>414</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>416</v>
       </c>
@@ -8813,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>418</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>420</v>
       </c>
@@ -8841,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>422</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>424</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>426</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>428</v>
       </c>
@@ -8897,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>430</v>
       </c>
@@ -8911,7 +8910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>432</v>
       </c>
@@ -8925,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>434</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>436</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>438</v>
       </c>
@@ -8967,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>440</v>
       </c>
@@ -8981,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>442</v>
       </c>
@@ -8995,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>444</v>
       </c>
@@ -9009,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>446</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>448</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>450</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>452</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>454</v>
       </c>
@@ -9079,7 +9078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>456</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>458</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>460</v>
       </c>
@@ -9121,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>462</v>
       </c>
@@ -9135,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>464</v>
       </c>
@@ -9149,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>466</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>468</v>
       </c>
@@ -9177,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>470</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>472</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>474</v>
       </c>
@@ -9219,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>476</v>
       </c>
@@ -9233,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>478</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>480</v>
       </c>
@@ -9261,7 +9260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>482</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>484</v>
       </c>
@@ -9289,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>486</v>
       </c>
@@ -9303,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>488</v>
       </c>
@@ -9317,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>490</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>492</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>494</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>496</v>
       </c>
@@ -9373,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>498</v>
       </c>
@@ -9387,7 +9386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>500</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>502</v>
       </c>
@@ -9415,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>504</v>
       </c>
@@ -9429,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>506</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -9457,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>510</v>
       </c>
@@ -9471,7 +9470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>511</v>
       </c>
@@ -9485,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>513</v>
       </c>
@@ -9499,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>515</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>517</v>
       </c>
@@ -9527,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>519</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>521</v>
       </c>
@@ -9555,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>523</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>525</v>
       </c>
@@ -9583,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>527</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>529</v>
       </c>
@@ -9611,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>531</v>
       </c>
@@ -9625,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>533</v>
       </c>
@@ -9639,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>535</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>537</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>539</v>
       </c>
@@ -9681,7 +9680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>541</v>
       </c>
@@ -9695,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>543</v>
       </c>
@@ -9709,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>545</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>547</v>
       </c>
@@ -9737,7 +9736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>549</v>
       </c>
@@ -9751,7 +9750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>551</v>
       </c>
@@ -9765,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>553</v>
       </c>
@@ -9779,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>555</v>
       </c>
@@ -9793,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>557</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>559</v>
       </c>
@@ -9821,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>561</v>
       </c>
@@ -9835,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>563</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>565</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>567</v>
       </c>
@@ -9877,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>569</v>
       </c>
@@ -9891,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>571</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>575</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>577</v>
       </c>
@@ -9947,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -9961,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>581</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>583</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>585</v>
       </c>
@@ -10003,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>587</v>
       </c>
@@ -10017,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -10031,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>591</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>593</v>
       </c>
@@ -10059,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>595</v>
       </c>
@@ -10073,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>597</v>
       </c>
@@ -10087,7 +10086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>599</v>
       </c>
@@ -10101,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>601</v>
       </c>
@@ -10115,7 +10114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>603</v>
       </c>
@@ -10129,7 +10128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>605</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>607</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>609</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>611</v>
       </c>
@@ -10185,7 +10184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>613</v>
       </c>
@@ -10199,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>615</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>617</v>
       </c>
@@ -10227,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>619</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>621</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>623</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>625</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>627</v>
       </c>
@@ -10297,7 +10296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>629</v>
       </c>
@@ -10311,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>631</v>
       </c>
@@ -10325,7 +10324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>633</v>
       </c>
@@ -10339,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>635</v>
       </c>
@@ -10353,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>637</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>639</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>641</v>
       </c>
@@ -10395,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>643</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>645</v>
       </c>
@@ -10423,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>647</v>
       </c>
@@ -10437,7 +10436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>649</v>
       </c>
@@ -10451,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>651</v>
       </c>
@@ -10465,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>653</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>655</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>657</v>
       </c>
@@ -10507,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>659</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>661</v>
       </c>
@@ -10535,7 +10534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>663</v>
       </c>
@@ -10549,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>665</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>667</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>669</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>671</v>
       </c>
@@ -10605,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>673</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>675</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>677</v>
       </c>
@@ -10647,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>679</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>681</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>683</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>685</v>
       </c>
@@ -10703,7 +10702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>687</v>
       </c>
@@ -10717,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>689</v>
       </c>
@@ -10731,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>691</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>693</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>695</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>697</v>
       </c>
@@ -10787,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>699</v>
       </c>
@@ -10801,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>701</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>703</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>705</v>
       </c>
@@ -10843,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>707</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>709</v>
       </c>
@@ -10871,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>711</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>713</v>
       </c>
@@ -10899,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>715</v>
       </c>
@@ -10913,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>717</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>719</v>
       </c>
@@ -10941,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>721</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>723</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>725</v>
       </c>
@@ -10983,7 +10982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>727</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>729</v>
       </c>
@@ -11011,7 +11010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>731</v>
       </c>
@@ -11025,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>733</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>735</v>
       </c>
@@ -11053,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>737</v>
       </c>
@@ -11067,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>739</v>
       </c>
@@ -11081,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>741</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>742</v>
       </c>
@@ -11109,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>744</v>
       </c>
@@ -11123,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>746</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>748</v>
       </c>
@@ -11151,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>750</v>
       </c>
@@ -11165,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>752</v>
       </c>
@@ -11179,7 +11178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>754</v>
       </c>
@@ -11193,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>756</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>758</v>
       </c>
@@ -11221,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>760</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>762</v>
       </c>
@@ -11249,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>764</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>765</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>767</v>
       </c>
@@ -11291,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>768</v>
       </c>
@@ -11305,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>770</v>
       </c>
@@ -11319,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>772</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>774</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>776</v>
       </c>
@@ -11361,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>778</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>780</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>782</v>
       </c>
@@ -11403,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>784</v>
       </c>
@@ -11417,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>786</v>
       </c>
@@ -11431,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>788</v>
       </c>
@@ -11445,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>790</v>
       </c>
@@ -11459,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>791</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>792</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>794</v>
       </c>
@@ -11501,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>796</v>
       </c>
@@ -11515,7 +11514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>798</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>800</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>802</v>
       </c>
@@ -11557,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>804</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>806</v>
       </c>
@@ -11585,7 +11584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>808</v>
       </c>
@@ -11599,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>810</v>
       </c>
@@ -11613,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>812</v>
       </c>
@@ -11627,7 +11626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>814</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>816</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>818</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>820</v>
       </c>
@@ -11683,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>822</v>
       </c>
@@ -11697,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>824</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>826</v>
       </c>
@@ -11725,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>828</v>
       </c>
@@ -11739,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>830</v>
       </c>
@@ -11753,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>832</v>
       </c>
@@ -11767,7 +11766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>834</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>836</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>838</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>840</v>
       </c>
@@ -11823,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>842</v>
       </c>
@@ -11837,7 +11836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>844</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>846</v>
       </c>
@@ -11865,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>848</v>
       </c>
@@ -11879,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>850</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>852</v>
       </c>
@@ -11907,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>854</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>856</v>
       </c>
@@ -11935,7 +11934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>858</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>860</v>
       </c>
@@ -11963,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>862</v>
       </c>
@@ -11977,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>864</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>866</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>868</v>
       </c>
@@ -12019,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>870</v>
       </c>
@@ -12033,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>872</v>
       </c>
@@ -12047,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>874</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>876</v>
       </c>
@@ -12075,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>877</v>
       </c>
@@ -12089,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>879</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>881</v>
       </c>
@@ -12117,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>883</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>885</v>
       </c>
@@ -12145,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>887</v>
       </c>
@@ -12159,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>889</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>891</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>893</v>
       </c>
@@ -12201,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>895</v>
       </c>
@@ -12215,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>897</v>
       </c>
@@ -12229,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>899</v>
       </c>
@@ -12243,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>901</v>
       </c>
@@ -12257,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>903</v>
       </c>
@@ -12271,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>905</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>907</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>909</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>911</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>913</v>
       </c>
@@ -12341,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>915</v>
       </c>
@@ -12355,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>917</v>
       </c>
@@ -12369,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>919</v>
       </c>
@@ -12383,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>921</v>
       </c>
@@ -12397,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>923</v>
       </c>
@@ -12411,7 +12410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>925</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>927</v>
       </c>
@@ -12439,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>929</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>931</v>
       </c>
@@ -12467,7 +12466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>933</v>
       </c>
@@ -12481,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>935</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>937</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>939</v>
       </c>
@@ -12523,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>941</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>943</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>945</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>947</v>
       </c>
@@ -12579,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>949</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>950</v>
       </c>
@@ -12607,7 +12606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>952</v>
       </c>
@@ -12621,7 +12620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>954</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>956</v>
       </c>
@@ -12649,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>958</v>
       </c>
@@ -12663,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>960</v>
       </c>
@@ -12677,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>962</v>
       </c>
@@ -12691,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>964</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>966</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>968</v>
       </c>
@@ -12733,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>970</v>
       </c>
@@ -12747,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>972</v>
       </c>
@@ -12761,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>974</v>
       </c>
@@ -12775,7 +12774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>976</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>978</v>
       </c>
@@ -12803,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>980</v>
       </c>
@@ -12817,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>982</v>
       </c>
@@ -12831,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>984</v>
       </c>
@@ -12845,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>986</v>
       </c>
@@ -12859,7 +12858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>988</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>990</v>
       </c>
@@ -12887,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>992</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>994</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>995</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>997</v>
       </c>
@@ -12943,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>999</v>
       </c>
@@ -12957,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1001</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1003</v>
       </c>
@@ -12985,7 +12984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1004</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1006</v>
       </c>
@@ -13013,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1008</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1010</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1011</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1013</v>
       </c>
@@ -13069,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1015</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1017</v>
       </c>
@@ -13097,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1019</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1021</v>
       </c>
@@ -13125,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1023</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1025</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1027</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1029</v>
       </c>
@@ -13181,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1031</v>
       </c>
@@ -13195,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1033</v>
       </c>
@@ -13209,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1035</v>
       </c>
@@ -13223,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1037</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1039</v>
       </c>
@@ -13251,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1041</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1043</v>
       </c>
@@ -13279,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1045</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1047</v>
       </c>
@@ -13307,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1049</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1051</v>
       </c>
@@ -13335,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1053</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1055</v>
       </c>
@@ -13363,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1057</v>
       </c>
@@ -13377,7 +13376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1059</v>
       </c>
@@ -13391,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1061</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1063</v>
       </c>
@@ -13419,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1065</v>
       </c>
@@ -13433,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1067</v>
       </c>
@@ -13447,7 +13446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1069</v>
       </c>
@@ -13461,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1071</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1073</v>
       </c>
@@ -13489,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1075</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1077</v>
       </c>
@@ -13517,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1079</v>
       </c>
@@ -13531,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1081</v>
       </c>
@@ -13545,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1083</v>
       </c>
@@ -13559,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1085</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1087</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1089</v>
       </c>
@@ -13601,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1091</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1093</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1095</v>
       </c>
@@ -13643,7 +13642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1097</v>
       </c>
@@ -13657,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1099</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1101</v>
       </c>
@@ -13685,7 +13684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1103</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1105</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1107</v>
       </c>
@@ -13727,7 +13726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1109</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1111</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1113</v>
       </c>
@@ -13769,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1115</v>
       </c>
@@ -13783,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1117</v>
       </c>
@@ -13797,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1119</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1121</v>
       </c>
@@ -13825,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1123</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1125</v>
       </c>
@@ -13853,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1127</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1128</v>
       </c>
@@ -13881,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1129</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1131</v>
       </c>
@@ -13909,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1133</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1135</v>
       </c>
@@ -13937,7 +13936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1137</v>
       </c>
@@ -13951,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1139</v>
       </c>
@@ -13965,7 +13964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1141</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1143</v>
       </c>
@@ -13993,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1145</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1147</v>
       </c>
@@ -14021,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1148</v>
       </c>
@@ -14035,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1150</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1152</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1154</v>
       </c>
@@ -14077,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1156</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1158</v>
       </c>
@@ -14105,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1160</v>
       </c>
@@ -14119,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1162</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1163</v>
       </c>
@@ -14147,7 +14146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1164</v>
       </c>
@@ -14161,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1166</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1168</v>
       </c>
@@ -14189,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1170</v>
       </c>
@@ -14203,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1172</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1173</v>
       </c>
@@ -14231,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1175</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1177</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1179</v>
       </c>
@@ -14273,7 +14272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1181</v>
       </c>
@@ -14287,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1183</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1185</v>
       </c>
@@ -14315,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1187</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1189</v>
       </c>
@@ -14343,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1191</v>
       </c>
@@ -14357,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1193</v>
       </c>
@@ -14371,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1195</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1197</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1199</v>
       </c>
@@ -14413,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1201</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1203</v>
       </c>
@@ -14441,7 +14440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1205</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1207</v>
       </c>
@@ -14469,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1209</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1210</v>
       </c>
@@ -14497,7 +14496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1211</v>
       </c>
@@ -14511,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1212</v>
       </c>
@@ -14525,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1213</v>
       </c>
@@ -14539,7 +14538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1215</v>
       </c>
@@ -14553,7 +14552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1217</v>
       </c>
@@ -14567,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1218</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1220</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1222</v>
       </c>
@@ -14609,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1224</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1226</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1228</v>
       </c>
@@ -14651,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1230</v>
       </c>
@@ -14665,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1232</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1234</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1236</v>
       </c>
@@ -14707,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1238</v>
       </c>
@@ -14721,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1240</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1242</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1244</v>
       </c>
@@ -14763,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1246</v>
       </c>
@@ -14777,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1248</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1250</v>
       </c>
@@ -14805,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1252</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1254</v>
       </c>
@@ -14833,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1256</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1258</v>
       </c>
@@ -14861,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1260</v>
       </c>
@@ -14875,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1262</v>
       </c>
@@ -14889,7 +14888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1264</v>
       </c>
@@ -14903,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1266</v>
       </c>
@@ -14917,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1268</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1270</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1272</v>
       </c>
@@ -14959,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1273</v>
       </c>
@@ -14973,7 +14972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1275</v>
       </c>
@@ -14987,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1277</v>
       </c>
@@ -15001,7 +15000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1279</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1280</v>
       </c>
@@ -15029,7 +15028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1282</v>
       </c>
@@ -15043,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1284</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1286</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1288</v>
       </c>
@@ -15085,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1290</v>
       </c>
@@ -15099,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1292</v>
       </c>
@@ -15113,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1294</v>
       </c>
@@ -15127,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1296</v>
       </c>
@@ -15141,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1298</v>
       </c>
@@ -15155,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1300</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1302</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1304</v>
       </c>
@@ -15197,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1306</v>
       </c>
@@ -15211,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1308</v>
       </c>
@@ -15225,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1310</v>
       </c>
@@ -15239,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1312</v>
       </c>
@@ -15253,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1314</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1316</v>
       </c>
@@ -15281,7 +15280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1318</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1320</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1322</v>
       </c>
@@ -15323,7 +15322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1324</v>
       </c>
@@ -15337,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1326</v>
       </c>
@@ -15351,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1328</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1330</v>
       </c>
@@ -15379,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1332</v>
       </c>
@@ -15393,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1334</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1336</v>
       </c>
@@ -15421,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1338</v>
       </c>
@@ -15435,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1340</v>
       </c>
@@ -15449,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1342</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1344</v>
       </c>
@@ -15477,7 +15476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1346</v>
       </c>
@@ -15491,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1348</v>
       </c>
@@ -15505,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1350</v>
       </c>
@@ -15519,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1352</v>
       </c>
@@ -15533,7 +15532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1354</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1356</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1358</v>
       </c>
@@ -15575,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1360</v>
       </c>
@@ -15589,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1362</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1364</v>
       </c>
@@ -15617,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1366</v>
       </c>
@@ -15631,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1368</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1370</v>
       </c>
@@ -15659,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1372</v>
       </c>
@@ -15673,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1374</v>
       </c>
@@ -15687,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1375</v>
       </c>
@@ -15701,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1377</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1379</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1381</v>
       </c>
@@ -15743,7 +15742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1381</v>
       </c>
@@ -15757,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1384</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1386</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1388</v>
       </c>
@@ -15799,7 +15798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1390</v>
       </c>
@@ -15813,7 +15812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1392</v>
       </c>
@@ -15827,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1394</v>
       </c>
@@ -15841,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1396</v>
       </c>
@@ -15855,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1398</v>
       </c>
@@ -15869,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1400</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1402</v>
       </c>
@@ -15897,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1404</v>
       </c>
@@ -15911,7 +15910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1405</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1407</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1409</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1411</v>
       </c>
@@ -15967,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1413</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1415</v>
       </c>
@@ -15995,7 +15994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1417</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1419</v>
       </c>
@@ -16023,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1421</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1423</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1425</v>
       </c>
@@ -16065,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1427</v>
       </c>
@@ -16079,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1429</v>
       </c>
@@ -16093,7 +16092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1431</v>
       </c>
@@ -16107,7 +16106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1433</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1435</v>
       </c>
@@ -16135,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1437</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1439</v>
       </c>
@@ -16163,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1441</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1443</v>
       </c>
@@ -16191,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1445</v>
       </c>
@@ -16205,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1447</v>
       </c>
@@ -16219,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1449</v>
       </c>
@@ -16233,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1451</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1453</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1454</v>
       </c>
@@ -16275,7 +16274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1456</v>
       </c>
@@ -16289,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1458</v>
       </c>
@@ -16303,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1459</v>
       </c>
@@ -16317,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1461</v>
       </c>
@@ -16331,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1463</v>
       </c>
@@ -16345,7 +16344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1464</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1466</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1468</v>
       </c>
@@ -16387,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1470</v>
       </c>
@@ -16401,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1472</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1474</v>
       </c>
@@ -16429,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1476</v>
       </c>
@@ -16443,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1478</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1480</v>
       </c>
@@ -16471,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1482</v>
       </c>
@@ -16485,7 +16484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1484</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1485</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1487</v>
       </c>
@@ -16527,7 +16526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1489</v>
       </c>
@@ -16541,7 +16540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1491</v>
       </c>
@@ -16555,7 +16554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1493</v>
       </c>
@@ -16569,7 +16568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1495</v>
       </c>
@@ -16583,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1497</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1499</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1500</v>
       </c>
@@ -16625,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1502</v>
       </c>
@@ -16639,7 +16638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1504</v>
       </c>
@@ -16653,7 +16652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1506</v>
       </c>
@@ -16667,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1508</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1510</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1512</v>
       </c>
@@ -16709,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" t="s">
         <v>1514</v>
       </c>
@@ -16723,7 +16722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" t="s">
         <v>1516</v>
       </c>
@@ -16737,7 +16736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" t="s">
         <v>1518</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" t="s">
         <v>1520</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" t="s">
         <v>1522</v>
       </c>
@@ -16779,7 +16778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" t="s">
         <v>1524</v>
       </c>
@@ -16793,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" t="s">
         <v>1526</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" t="s">
         <v>1528</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" t="s">
         <v>1530</v>
       </c>
@@ -16835,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" t="s">
         <v>1532</v>
       </c>
@@ -16849,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" t="s">
         <v>1534</v>
       </c>
@@ -16863,7 +16862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" t="s">
         <v>1536</v>
       </c>
@@ -16877,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A789" t="s">
         <v>1538</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A790" t="s">
         <v>1540</v>
       </c>
@@ -16905,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" t="s">
         <v>1542</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" t="s">
         <v>1544</v>
       </c>
@@ -16933,7 +16932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" t="s">
         <v>1546</v>
       </c>
@@ -16947,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" t="s">
         <v>1548</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" t="s">
         <v>1550</v>
       </c>
@@ -16975,7 +16974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" t="s">
         <v>1552</v>
       </c>
@@ -16989,7 +16988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" t="s">
         <v>1554</v>
       </c>
@@ -17003,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" t="s">
         <v>1556</v>
       </c>
@@ -17017,7 +17016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" t="s">
         <v>1558</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" t="s">
         <v>1560</v>
       </c>
@@ -17045,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" t="s">
         <v>1562</v>
       </c>
@@ -17059,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" t="s">
         <v>1564</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" t="s">
         <v>1566</v>
       </c>
@@ -17087,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" t="s">
         <v>1568</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" t="s">
         <v>1570</v>
       </c>
@@ -17115,7 +17114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" t="s">
         <v>1572</v>
       </c>
@@ -17129,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" t="s">
         <v>1573</v>
       </c>
@@ -17143,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" t="s">
         <v>1574</v>
       </c>
@@ -17157,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" t="s">
         <v>1575</v>
       </c>
@@ -17171,7 +17170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" t="s">
         <v>1577</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" t="s">
         <v>1579</v>
       </c>
@@ -17199,7 +17198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" t="s">
         <v>1581</v>
       </c>
@@ -17213,7 +17212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" t="s">
         <v>1583</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" t="s">
         <v>1585</v>
       </c>
@@ -17241,7 +17240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" t="s">
         <v>1587</v>
       </c>
@@ -17255,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" t="s">
         <v>1589</v>
       </c>
@@ -17269,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" t="s">
         <v>1591</v>
       </c>
@@ -17283,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" t="s">
         <v>1593</v>
       </c>
@@ -17297,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" t="s">
         <v>1594</v>
       </c>
@@ -17311,7 +17310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" t="s">
         <v>1596</v>
       </c>
@@ -17325,7 +17324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" t="s">
         <v>1597</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" t="s">
         <v>1599</v>
       </c>
@@ -17353,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" t="s">
         <v>1601</v>
       </c>
@@ -17367,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" t="s">
         <v>1603</v>
       </c>
@@ -17381,7 +17380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" t="s">
         <v>1605</v>
       </c>
@@ -17395,7 +17394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" t="s">
         <v>1607</v>
       </c>
@@ -17409,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" t="s">
         <v>1609</v>
       </c>
@@ -17423,7 +17422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" t="s">
         <v>1611</v>
       </c>
@@ -17437,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" t="s">
         <v>1613</v>
       </c>
@@ -17451,7 +17450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" t="s">
         <v>1615</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" t="s">
         <v>1617</v>
       </c>
@@ -17479,7 +17478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" t="s">
         <v>1619</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" t="s">
         <v>1621</v>
       </c>
@@ -17507,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" t="s">
         <v>1622</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" t="s">
         <v>1624</v>
       </c>
@@ -17535,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" t="s">
         <v>1626</v>
       </c>
@@ -17549,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" t="s">
         <v>1627</v>
       </c>
@@ -17563,7 +17562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" t="s">
         <v>1629</v>
       </c>
@@ -17577,7 +17576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" t="s">
         <v>1631</v>
       </c>
@@ -17591,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" t="s">
         <v>1633</v>
       </c>
@@ -17605,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" t="s">
         <v>1635</v>
       </c>
@@ -17619,7 +17618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" t="s">
         <v>1637</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" t="s">
         <v>1639</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" t="s">
         <v>1641</v>
       </c>
@@ -17661,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" t="s">
         <v>1643</v>
       </c>
@@ -17675,7 +17674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" t="s">
         <v>1645</v>
       </c>
@@ -17689,7 +17688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" t="s">
         <v>1647</v>
       </c>
@@ -17703,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" t="s">
         <v>1649</v>
       </c>
@@ -17717,7 +17716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" t="s">
         <v>1651</v>
       </c>
@@ -17731,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" t="s">
         <v>1653</v>
       </c>
@@ -17745,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" t="s">
         <v>1655</v>
       </c>
@@ -17759,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" t="s">
         <v>1657</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" t="s">
         <v>1659</v>
       </c>
@@ -17787,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" t="s">
         <v>1661</v>
       </c>
@@ -17801,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" t="s">
         <v>1663</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" t="s">
         <v>1665</v>
       </c>
@@ -17829,7 +17828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A857" t="s">
         <v>1667</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" t="s">
         <v>1668</v>
       </c>
@@ -17857,7 +17856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" t="s">
         <v>1669</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" t="s">
         <v>1671</v>
       </c>
@@ -17885,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" t="s">
         <v>1673</v>
       </c>
@@ -17899,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" t="s">
         <v>1675</v>
       </c>
@@ -17913,7 +17912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" t="s">
         <v>1677</v>
       </c>
@@ -17927,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" t="s">
         <v>1679</v>
       </c>
@@ -17941,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" t="s">
         <v>1681</v>
       </c>
@@ -17955,7 +17954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" t="s">
         <v>1683</v>
       </c>
@@ -17969,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" t="s">
         <v>1685</v>
       </c>
@@ -17983,7 +17982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" t="s">
         <v>1687</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" t="s">
         <v>1689</v>
       </c>
@@ -18011,7 +18010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" t="s">
         <v>1691</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" t="s">
         <v>1693</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" t="s">
         <v>1695</v>
       </c>
@@ -18053,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" t="s">
         <v>1697</v>
       </c>
@@ -18067,7 +18066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" t="s">
         <v>1699</v>
       </c>
@@ -18081,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" t="s">
         <v>1700</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" t="s">
         <v>1702</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" t="s">
         <v>1703</v>
       </c>
@@ -18123,7 +18122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" t="s">
         <v>1705</v>
       </c>
@@ -18137,7 +18136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A879" t="s">
         <v>1707</v>
       </c>
@@ -18151,7 +18150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A880" t="s">
         <v>1708</v>
       </c>
@@ -18165,7 +18164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A881" t="s">
         <v>1710</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A882" t="s">
         <v>1712</v>
       </c>
@@ -18193,7 +18192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A883" t="s">
         <v>1714</v>
       </c>
@@ -18207,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A884" t="s">
         <v>1716</v>
       </c>
@@ -18221,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A885" t="s">
         <v>1718</v>
       </c>
@@ -18235,7 +18234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A886" t="s">
         <v>1720</v>
       </c>
@@ -18249,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A887" t="s">
         <v>1722</v>
       </c>
@@ -18263,7 +18262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A888" t="s">
         <v>1724</v>
       </c>
@@ -18277,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A889" t="s">
         <v>1726</v>
       </c>
@@ -18291,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A890" t="s">
         <v>1728</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A891" t="s">
         <v>1730</v>
       </c>
@@ -18319,7 +18318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A892" t="s">
         <v>1732</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A893" t="s">
         <v>1734</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A894" t="s">
         <v>1736</v>
       </c>
@@ -18361,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A895" t="s">
         <v>1738</v>
       </c>
@@ -18375,7 +18374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A896" t="s">
         <v>1739</v>
       </c>
@@ -18389,7 +18388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A897" t="s">
         <v>1741</v>
       </c>
@@ -18403,7 +18402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A898" t="s">
         <v>1743</v>
       </c>
@@ -18417,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A899" t="s">
         <v>1745</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A900" t="s">
         <v>1747</v>
       </c>
@@ -18445,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A901" t="s">
         <v>1749</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A902" t="s">
         <v>1751</v>
       </c>
@@ -18473,7 +18472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A903" t="s">
         <v>1753</v>
       </c>
@@ -18487,7 +18486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A904" t="s">
         <v>1755</v>
       </c>
@@ -18501,7 +18500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A905" t="s">
         <v>1757</v>
       </c>
@@ -18515,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A906" t="s">
         <v>1759</v>
       </c>
@@ -18529,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A907" t="s">
         <v>1761</v>
       </c>
@@ -18543,7 +18542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A908" t="s">
         <v>1763</v>
       </c>
@@ -18557,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A909" t="s">
         <v>1765</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A910" t="s">
         <v>1767</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A911" t="s">
         <v>1769</v>
       </c>
@@ -18599,7 +18598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A912" t="s">
         <v>1771</v>
       </c>
@@ -18613,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A913" t="s">
         <v>1772</v>
       </c>
@@ -18627,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A914" t="s">
         <v>1774</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A915" t="s">
         <v>1776</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A916" t="s">
         <v>1778</v>
       </c>
@@ -18669,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A917" t="s">
         <v>1780</v>
       </c>
@@ -18683,7 +18682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A918" t="s">
         <v>1782</v>
       </c>
@@ -18697,7 +18696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A919" t="s">
         <v>1783</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A920" t="s">
         <v>1785</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A921" t="s">
         <v>1787</v>
       </c>
@@ -18739,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A922" t="s">
         <v>1789</v>
       </c>
@@ -18753,7 +18752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A923" t="s">
         <v>1791</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A924" t="s">
         <v>1793</v>
       </c>
@@ -18781,7 +18780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A925" t="s">
         <v>1795</v>
       </c>
@@ -18795,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A926" t="s">
         <v>1797</v>
       </c>
@@ -18809,7 +18808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A927" t="s">
         <v>1799</v>
       </c>
@@ -18823,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A928" t="s">
         <v>1801</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A929" t="s">
         <v>1803</v>
       </c>
@@ -18851,7 +18850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A930" t="s">
         <v>1805</v>
       </c>
@@ -18866,13 +18865,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C930" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0.5"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C930" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
